--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_17_c.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_17_c.xlsx
@@ -76,7 +76,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] I… It's too hard… to deal with these Heralds!! I, I don't think I can handle this… Auugh!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] I... It's too hard... to deal with these Heralds!! I, I don't think I can handle this... Auugh!
 </t>
   </si>
   <si>
